--- a/csv/policies/reference/Ref_coal phase out/formula_Ref_coal phase out_QC.xlsx
+++ b/csv/policies/reference/Ref_coal phase out/formula_Ref_coal phase out_QC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_coal phase out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52C5FCE8-940A-4AE6-9A40-EB2D2732CD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FFFEEBF-C135-48AA-B724-FFC64801FF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3660" windowWidth="17280" windowHeight="8880" xr2:uid="{463DD95C-C7F6-4D3B-A6E2-5D159DBEBB6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13DC0864-429E-4450-B128-504B4EE3E2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.QC.Electricity.Utility Generation.Shoulder Load</t>
+  </si>
+  <si>
+    <t>Shoulder Load</t>
   </si>
 </sst>
 </file>
@@ -475,21 +481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875DD96A-4177-4FDA-8587-2234E16135D0}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044CE35E-5532-40F6-8075-FB60EF068616}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X4"/>
+      <selection sqref="A1:X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -563,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -622,7 +628,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -682,6 +688,128 @@
       </c>
       <c r="W4">
         <f>V4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>2021</v>
+      </c>
+      <c r="N5">
+        <v>2021</v>
+      </c>
+      <c r="O5">
+        <v>2021</v>
+      </c>
+      <c r="P5">
+        <v>2021</v>
+      </c>
+      <c r="Q5">
+        <v>2021</v>
+      </c>
+      <c r="R5">
+        <v>2021</v>
+      </c>
+      <c r="S5">
+        <v>2021</v>
+      </c>
+      <c r="T5">
+        <v>2021</v>
+      </c>
+      <c r="U5">
+        <v>2021</v>
+      </c>
+      <c r="V5">
+        <v>2021</v>
+      </c>
+      <c r="W5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.3</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f>S6</f>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f>T6</f>
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f>U6</f>
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <f>V6</f>
         <v>1</v>
       </c>
     </row>

--- a/csv/policies/reference/Ref_coal phase out/formula_Ref_coal phase out_QC.xlsx
+++ b/csv/policies/reference/Ref_coal phase out/formula_Ref_coal phase out_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_coal phase out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FFFEEBF-C135-48AA-B724-FFC64801FF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE5A549-A7F0-4711-B524-CF29EDAE43C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13DC0864-429E-4450-B128-504B4EE3E2AB}"/>
+    <workbookView xWindow="42705" yWindow="6810" windowWidth="17250" windowHeight="8865" xr2:uid="{13DC0864-429E-4450-B128-504B4EE3E2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,17 +485,17 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X6"/>
+      <selection activeCell="M3" sqref="M3:W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -569,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -595,40 +595,40 @@
         <v>20</v>
       </c>
       <c r="M3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="N3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="O3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="P3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="Q3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="R3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="S3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="T3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="U3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="V3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="W3">
-        <v>2021</v>
+        <v>2012</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -660,38 +660,34 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
       <c r="T4">
-        <f>S4</f>
         <v>1</v>
       </c>
       <c r="U4">
-        <f>T4</f>
         <v>1</v>
       </c>
       <c r="V4">
-        <f>U4</f>
         <v>1</v>
       </c>
       <c r="W4">
-        <f>V4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -717,40 +713,40 @@
         <v>20</v>
       </c>
       <c r="M5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="N5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="O5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="P5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="Q5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="R5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="S5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="T5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="U5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="V5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="W5">
-        <v>2021</v>
+        <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -782,34 +778,30 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>1</v>
       </c>
       <c r="T6">
-        <f>S6</f>
         <v>1</v>
       </c>
       <c r="U6">
-        <f>T6</f>
         <v>1</v>
       </c>
       <c r="V6">
-        <f>U6</f>
         <v>1</v>
       </c>
       <c r="W6">
-        <f>V6</f>
         <v>1</v>
       </c>
     </row>

--- a/csv/policies/reference/Ref_coal phase out/formula_Ref_coal phase out_QC.xlsx
+++ b/csv/policies/reference/Ref_coal phase out/formula_Ref_coal phase out_QC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_coal phase out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE5A549-A7F0-4711-B524-CF29EDAE43C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E9A3576-8FF4-4EF5-9E51-BEE61CCFAB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42705" yWindow="6810" windowWidth="17250" windowHeight="8865" xr2:uid="{13DC0864-429E-4450-B128-504B4EE3E2AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1B164412-D583-4346-8E35-C3E6D2F4E03E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -481,21 +481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044CE35E-5532-40F6-8075-FB60EF068616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2541A346-6DFB-4C75-9728-9B8645A455BE}">
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:W6"/>
+      <selection sqref="A1:X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -569,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -628,7 +628,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -666,28 +666,35 @@
         <v>1</v>
       </c>
       <c r="Q4">
+        <f>P4</f>
         <v>1</v>
       </c>
       <c r="R4">
+        <f t="shared" ref="R4:W4" si="0">Q4</f>
         <v>1</v>
       </c>
       <c r="S4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -746,7 +753,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -784,24 +791,31 @@
         <v>1</v>
       </c>
       <c r="Q6">
+        <f t="shared" ref="Q6:W6" si="1">P6</f>
         <v>1</v>
       </c>
       <c r="R6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
